--- a/RecursosWeb.xlsx
+++ b/RecursosWeb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solincamfer\Downloads\Jorge\notas\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entorno de Trabajo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="761">
   <si>
     <t>Concepto</t>
   </si>
@@ -2746,9 +2746,6 @@
   </si>
   <si>
     <t>Video 99</t>
-  </si>
-  <si>
-    <t>Explicacion de Ajax, Sirve para insertar datos sin necesidad de recargar la pagina. Codigo completo en el minuto 6:50 del video, y la version antigua esta en el minuto 9:30</t>
   </si>
   <si>
     <t>Explicacion del objeto XMLHTTPRequest esto permite refrescar solo un trozo de la pagina y no toda la pagina completa. Los pasos para crear la peticion es primero se crea el objeto XMLHTTPRequest despues mediante el metodo open() que toma 3 parametros que seria primero el metodo del llamado (get o post) y la ruta del archivo que puede ser tanto interna es decir en el mismo servidor o en un servidor externo y el ultimo argumento es booleano que indica si es asyncrona y siempre se pone true. Hasta aqui vemos que sabemos que archivo puede hacer la peticion pero no le hemos indicado que la haga para ello debemos indicarle medienate el metodo sent() en haga la peticion, y mediante el metodo responseText recibir la repuesta para que esto funciones tenemos que definir donde se recibira la respuesta antes de enviarlo.</t>
@@ -2877,6 +2874,75 @@
   </si>
   <si>
     <t>1.1 Que es un protocolo HTTP</t>
+  </si>
+  <si>
+    <t>Video 100</t>
+  </si>
+  <si>
+    <t>Explicacion de Json , Para establecer la llave se hace entre comilllas todos los valores clave: valor estan separado por una (,) menos el ultimo si este se pone te marcara un error.</t>
+  </si>
+  <si>
+    <t>Video 101</t>
+  </si>
+  <si>
+    <t>Explicacion de Json con Ajax segunda parte</t>
+  </si>
+  <si>
+    <t>Videos 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion de API Son funciones, metodos que aporta una librería para ser utilizada por otro sofware. Tambien explica lo que es una Rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video 103 </t>
+  </si>
+  <si>
+    <t>Explicacion de Ajax, Sirve para insertar datos sin necesidad de recargar la pagina. Codigo completo en el minuto 6:50 del video, y la version antigua esta en el minuto 9:30
+(Version Nueva)
+function cargarDatos(){
+    // Se crea el objeto
+        // Se crea el objeto
+        const xhr = new XMLHttpRequest();
+        // Se establece la conexion
+        xhr.open('GET','/datos.txt', true);
+        // Salida de datos
+        xhr.onload = function(){
+            if(this.status === 200){
+               console.log(this.responseText);
+            }
+        }
+        // Se envia el request
+        xhr.send();
+    }
+(Version vieja)
+function cargarDatos(){
+// Se crea el objeto
+const xhr = new XMLHTTPRequest();
+// Se establece la conexion 
+xhr.open('[GET,POST,PUT,DELETE]','[RutaDatos]', true);
+// Salida de datos
+xhr.onreadystatechange = function(){
+if(this.readyState === 4 &amp;&amp; this.status ===200)
+console.log(this.responseText);
+}
+// Se envia el request
+xhr.send();
+}</t>
+  </si>
+  <si>
+    <t>Consumiendo una Api Rest con ajax el cual se utiliza JsonPlaceHolder y consume esta Apis y se muestra mediante ajax</t>
+  </si>
+  <si>
+    <t>14 - PROYECTO Generador de Nombres con REST API y AJAX</t>
+  </si>
+  <si>
+    <t>15 - JavaScript Asincrono o Async JS</t>
+  </si>
+  <si>
+    <t>Video 107</t>
+  </si>
+  <si>
+    <t>Explicacion de el codigo asincrono. Para crear codigo asincrono tenemos a nuestra disposicion los callback, los promises, async/await</t>
   </si>
 </sst>
 </file>
@@ -14840,8 +14906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B988"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15190,7 +15256,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>662</v>
       </c>
@@ -15213,7 +15279,7 @@
       </c>
       <c r="B49" s="48"/>
     </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" ht="243.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="5" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>665</v>
       </c>
@@ -15374,24 +15440,73 @@
       </c>
       <c r="B81" s="48"/>
     </row>
-    <row r="82" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>737</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
     <row r="87" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="B88" s="48"/>
+    </row>
+    <row r="89" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="47" t="s">
+        <v>707</v>
+      </c>
+    </row>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="48" t="s">
+        <v>758</v>
+      </c>
+      <c r="B91" s="48"/>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
     <row r="93" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -16289,7 +16404,9 @@
     <row r="987" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="988" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:B91"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A1:B1"/>
@@ -16312,7 +16429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B938"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -17457,7 +17574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -17475,42 +17592,42 @@
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>

--- a/RecursosWeb.xlsx
+++ b/RecursosWeb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entorno de Trabajo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="768">
   <si>
     <t>Concepto</t>
   </si>
@@ -2943,6 +2943,35 @@
   </si>
   <si>
     <t>Explicacion de el codigo asincrono. Para crear codigo asincrono tenemos a nuestra disposicion los callback, los promises, async/await</t>
+  </si>
+  <si>
+    <t>Video 108</t>
+  </si>
+  <si>
+    <t>Explicacion de los callback, es una funcion que correo sobre otra funcion. La funcion de callback se puede pasar como parametro en una funcion. Pera que se vuelva a ejecutar.</t>
+  </si>
+  <si>
+    <t>Video 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion de Promises. Lo primero que hay que saber es que se tiene que crear una instancia de el objeto 
+const esperando = new promise(function(resolve,reject){resolve("Se ejecuto")})
+esperando.then(function(mensaje){
+console.log(mensaje);
+})
+EL codigo se ejecuta si se cumple el promise mediante ejecutarse la funcion resolve este manda a llamar el then del objeto esperando. Para esperar el reject se ejecuta el catch(function(error){
+console.log(error);
+})
+</t>
+  </si>
+  <si>
+    <t>16 - Fetch APILa nuevatecnologiapararealizarpeticionesAJAX</t>
+  </si>
+  <si>
+    <t>Video 110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicacion  de fetch API </t>
   </si>
 </sst>
 </file>
@@ -3641,7 +3670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4313,7 +4342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -9985,7 +10014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -14906,8 +14935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15507,26 +15536,52 @@
         <v>760</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" s="5" customFormat="1" ht="337.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
     <row r="95" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="105" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="110" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="B96" s="48"/>
+    </row>
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="113" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="114" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="115" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -16404,9 +16459,10 @@
     <row r="987" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="988" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A1:B1"/>
@@ -18652,7 +18708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -19852,8 +19908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1000"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RecursosWeb.xlsx
+++ b/RecursosWeb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solincamfer\Downloads\Jorge\notas\Notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JORGE\Desktop\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Entorno de Trabajo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="772">
   <si>
     <t>Concepto</t>
   </si>
@@ -1932,18 +1932,12 @@
     <t>Enlazar hojas de estilos</t>
   </si>
   <si>
-    <t>&lt;link rel='stylesheet' href='{{asset(entre comillas rutas de archivo)}}' /&gt;</t>
-  </si>
-  <si>
     <t>Video 13 Blade I</t>
   </si>
   <si>
     <t>Para que se utiliza</t>
   </si>
   <si>
-    <t>Para escribir nuestro codigo de manera sencilla y limpi</t>
-  </si>
-  <si>
     <t>Como lo hace</t>
   </si>
   <si>
@@ -1951,12 +1945,6 @@
   </si>
   <si>
     <t>Modularizacion</t>
-  </si>
-  <si>
-    <t>Esta instrucción va dentro de los contenedores html</t>
-  </si>
-  <si>
-    <t>_@extends("ruta/plantilla")</t>
   </si>
   <si>
     <t>Ruta de la plantilla master que hereda</t>
@@ -1965,9 +1953,6 @@
     <t>_@section(Nombre de la zona) 
 Contenido
 _@endsection</t>
-  </si>
-  <si>
-    <t>Utulizar una secccion</t>
   </si>
   <si>
     <t>Url</t>
@@ -2973,12 +2958,39 @@
   <si>
     <t xml:space="preserve">Explicacion  de fetch API </t>
   </si>
+  <si>
+    <t>Incluir bootstrap desde la cdn</t>
+  </si>
+  <si>
+    <t>Se pega el codigo sin mas en el encabezado y js antes de la etiqueta body</t>
+  </si>
+  <si>
+    <t>&lt;link rel='stylesheet' href='{{asset(entre comillas rutas de archivo)}}' /&gt;, por convencion estos archivos estaticos estan dentro de una carpeta llamada assets aquí iran los archivos y nuestras librerias. La funcion asset no hace referencia a una carpeta assets es una funcion y como parametro ponemos la ruta de la carpeta o librerias</t>
+  </si>
+  <si>
+    <t>Para escribir nuestro codigo de manera sencilla y limpia</t>
+  </si>
+  <si>
+    <t>Dividir nuestras plantillas en modulo o partes es recomendable cuando creamos nuestas plantillas crear una carpeta layout donde colocaremos nuestras plantillas.</t>
+  </si>
+  <si>
+    <t>Utilizar una secccion esto se imprimira en _@yield con el mismo nonbre de la seccion</t>
+  </si>
+  <si>
+    <t>Esta instrucción va dentro de los contenedores html en esta seccion se imprimira todo los que se defina en _@section el contenido que no cambia nunca puede ir definido en la plantilla general miestas los que son especificos para cada pagina iran en las secciones.</t>
+  </si>
+  <si>
+    <t>Video 14 Blade II</t>
+  </si>
+  <si>
+    <t>_@extends("Carpeta.Nombreplantilla")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3085,6 +3097,19 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3173,7 +3198,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3299,9 +3324,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3313,6 +3335,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3335,6 +3360,13 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4685,11 +4717,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+    <row r="55" spans="1:2" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="46" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4883,7 +4915,7 @@
         <v>229</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -6218,7 +6250,7 @@
         <v>282</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -10012,10 +10044,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10030,28 +10062,28 @@
       </c>
       <c r="B1" s="54"/>
     </row>
-    <row r="2" spans="1:26" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>481</v>
@@ -10059,7 +10091,7 @@
       <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -10067,7 +10099,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="44" t="s">
         <v>478</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -10098,15 +10130,17 @@
       <c r="Y8" s="36"/>
       <c r="Z8" s="36"/>
     </row>
-    <row r="9" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
     <row r="10" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>487</v>
       </c>
       <c r="B10" s="54"/>
     </row>
-    <row r="11" spans="1:26" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:26" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -10114,314 +10148,316 @@
       </c>
     </row>
     <row r="12" spans="1:26" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="5" t="s">
         <v>485</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
     <row r="14" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>488</v>
       </c>
       <c r="B14" s="54"/>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-    </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+    </row>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="36"/>
-    </row>
-    <row r="17" spans="1:26" s="17" customFormat="1" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+    </row>
+    <row r="17" spans="1:26" s="5" customFormat="1" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-    </row>
-    <row r="18" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+    </row>
+    <row r="18" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-    </row>
-    <row r="19" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+    </row>
+    <row r="19" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-    </row>
-    <row r="20" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+    </row>
+    <row r="20" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="54" t="s">
         <v>499</v>
       </c>
       <c r="B21" s="54"/>
     </row>
-    <row r="22" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-    </row>
-    <row r="23" spans="1:26" s="17" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+    </row>
+    <row r="23" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-    </row>
-    <row r="24" spans="1:26" s="17" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+    </row>
+    <row r="24" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-    </row>
-    <row r="25" spans="1:26" s="17" customFormat="1" ht="300" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+    </row>
+    <row r="25" spans="1:26" s="5" customFormat="1" ht="357" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
     </row>
     <row r="26" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -10430,1152 +10466,1179 @@
       </c>
       <c r="B27" s="54"/>
     </row>
-    <row r="28" spans="1:26" s="17" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:26" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-    </row>
-    <row r="29" spans="1:26" s="17" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+    </row>
+    <row r="29" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-    </row>
-    <row r="30" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+    </row>
+    <row r="30" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>515</v>
       </c>
       <c r="B32" s="54"/>
     </row>
-    <row r="33" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" s="38" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>532</v>
       </c>
       <c r="B36" s="54"/>
     </row>
-    <row r="37" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:2" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
         <v>538</v>
       </c>
       <c r="B40" s="54"/>
     </row>
-    <row r="41" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:2" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+    <row r="41" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="B42" s="54"/>
-    </row>
-    <row r="43" spans="1:2" s="43" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="B44" s="54"/>
+    </row>
+    <row r="45" spans="1:2" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" s="41" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:2" s="41" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
+      <c r="B47" s="54"/>
+    </row>
+    <row r="48" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B45" s="54"/>
-    </row>
-    <row r="46" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="B48" s="5" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B50" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+    <row r="51" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B51" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+    <row r="54" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="17" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:2" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="65" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="66" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="67" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="68" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="69" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="70" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="71" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="72" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="73" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="74" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="75" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="76" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="77" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="78" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="79" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="80" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="81" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="82" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="83" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="84" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="85" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="86" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="87" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="88" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="89" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="90" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="91" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="92" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="93" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="94" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="95" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="96" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="97" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="98" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="99" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="100" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="101" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="102" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="103" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="104" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="105" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="106" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="107" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="108" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="109" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="110" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="111" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="112" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="113" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="114" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="115" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="116" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="117" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="118" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="119" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="120" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="121" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="122" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="123" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="124" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="125" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="126" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="127" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="128" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="129" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="130" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="131" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="132" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="133" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="134" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="135" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="136" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="137" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="138" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="139" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="140" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="141" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="142" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="143" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="144" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="145" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="146" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="147" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="148" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="149" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="150" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="151" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="152" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="153" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="154" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="155" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="156" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="157" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="158" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="159" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="160" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="161" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="162" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="163" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="164" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="165" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="166" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="167" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="168" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="169" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="170" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="171" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="172" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="173" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="174" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="175" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="176" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="177" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="178" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="179" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="180" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="181" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="182" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="183" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="184" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="185" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="186" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="187" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="188" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="189" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="190" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="191" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="192" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="193" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="194" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="195" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="196" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="197" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="198" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="199" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="200" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="201" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="202" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="203" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="204" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="205" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="206" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="207" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="208" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="209" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="210" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="211" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="212" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="213" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="214" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="215" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="216" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="217" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="218" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="219" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="220" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="221" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="222" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="223" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="224" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="225" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="226" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="227" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="228" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="229" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="230" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="231" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="232" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="233" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="234" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="235" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="236" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="237" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="238" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="239" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="240" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="241" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="242" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="243" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="244" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="245" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="246" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="247" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="248" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="249" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="250" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="251" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="252" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="253" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="254" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="255" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="256" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="257" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="258" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="259" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="260" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="261" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="262" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="263" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="264" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="265" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="266" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="267" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="268" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="269" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="270" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="271" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="272" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="273" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="274" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="275" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="276" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="277" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="278" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="279" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="280" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="281" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="282" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="283" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="284" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="285" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="286" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="287" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="288" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="289" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="290" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="291" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="292" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="293" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="294" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="295" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="296" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="297" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="298" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="299" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="300" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="301" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="302" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="303" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="304" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="305" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="306" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="307" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="308" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="309" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="310" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="311" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="312" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="313" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="314" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="315" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="316" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="317" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="318" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="319" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="320" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="321" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="322" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="323" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="324" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="325" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="326" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="327" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="328" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="329" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="330" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="331" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="332" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="333" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="334" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="335" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="336" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="337" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="338" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="339" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="340" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="341" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="342" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="343" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="344" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="345" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="346" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="347" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="348" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="349" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="350" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="351" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="352" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="353" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="354" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="355" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="356" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="357" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="358" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="359" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="360" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="361" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="362" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="363" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="364" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="365" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="366" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="367" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="368" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="369" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="370" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="371" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="372" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="373" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="374" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="375" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="376" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="377" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="378" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="379" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="380" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="381" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="382" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="383" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="384" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="385" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="386" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="387" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="388" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="389" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="390" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="391" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="392" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="393" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="394" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="395" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="396" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="397" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="398" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="399" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="400" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="401" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="402" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="403" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="404" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="405" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="406" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="407" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="408" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="409" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="410" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="411" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="412" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="413" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="414" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="415" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="416" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="417" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="418" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="419" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="420" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="421" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="422" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="423" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="424" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="425" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="426" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="427" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="428" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="429" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="430" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="431" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="432" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="433" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="434" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="435" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="436" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="437" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="438" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="439" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="440" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="441" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="442" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="443" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="444" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="445" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="446" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="447" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="448" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="449" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="450" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="451" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="452" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="453" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="454" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="455" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="456" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="457" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="458" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="459" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="460" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="461" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="462" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="463" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="464" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="465" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="466" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="467" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="468" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="469" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="470" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="471" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="472" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="473" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="474" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="475" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="476" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="477" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="478" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="479" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="480" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="481" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="482" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="483" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="484" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="485" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="486" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="487" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="488" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="489" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="490" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="491" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="492" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="493" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="494" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="495" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="496" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="497" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="498" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="499" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="500" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="501" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="502" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="503" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="504" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="505" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="506" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="507" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="508" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="509" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="510" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="511" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="512" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="513" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="514" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="515" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="516" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="517" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="518" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="519" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="520" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="521" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="522" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="523" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="524" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="525" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="526" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="527" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="528" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="529" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="530" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="531" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="532" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="533" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="534" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="535" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="536" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="537" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="538" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="539" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="540" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="541" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="542" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="543" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="544" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="545" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="546" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="547" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="548" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="549" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="550" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="551" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="552" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="553" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="554" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="555" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="556" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="557" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="558" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="559" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="560" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="561" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="562" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="563" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="564" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="565" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="566" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="567" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="568" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="569" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="570" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="571" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="572" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="573" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="574" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="575" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="576" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="577" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="578" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="579" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="580" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="581" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="582" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="583" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="584" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="585" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="586" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="587" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="588" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="589" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="590" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="591" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="592" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="593" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="594" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="595" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="596" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="597" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="598" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="599" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="600" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="601" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="602" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="603" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="604" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="605" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="606" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="607" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="608" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="609" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="610" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="611" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="612" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="613" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="614" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="615" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="616" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="617" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="618" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="619" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="620" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="621" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="622" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="623" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="624" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="625" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="626" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="627" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="628" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="629" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="630" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="631" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="632" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="633" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="634" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="635" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="636" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="637" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="638" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="639" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="640" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="641" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="642" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="643" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="644" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="645" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="646" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="647" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="648" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="649" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="650" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="651" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="652" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="653" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="654" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="655" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="656" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="657" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="658" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="659" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="660" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="661" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="662" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="663" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="664" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="665" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="666" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="667" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="668" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="669" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="670" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="671" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="672" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="673" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="674" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="675" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="676" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="677" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="678" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="679" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="680" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="681" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="682" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="683" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="684" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="685" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="686" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="687" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="688" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="689" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="690" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="691" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="692" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="693" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="694" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="695" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="696" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="697" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="698" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="699" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="700" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="701" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="702" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="703" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="704" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="705" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="706" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="707" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="708" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="709" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="710" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="711" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="712" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="713" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="714" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="715" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="716" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="717" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="718" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="719" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="720" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="721" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="722" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="723" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="724" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="725" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="726" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="727" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="728" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="729" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="730" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="731" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="732" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="733" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="734" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="735" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="736" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="737" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="738" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="739" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="740" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="741" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="742" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="743" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="744" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="745" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="746" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="747" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="748" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="749" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="750" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="751" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="752" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="753" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="754" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="755" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="756" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="757" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="758" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="759" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="760" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="761" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="762" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="763" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="764" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="765" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="766" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="767" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="768" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="769" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="770" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="771" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="772" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="773" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="774" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="775" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="776" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="777" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="778" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="779" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="780" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="781" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="782" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="783" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="784" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="785" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="786" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="787" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="788" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="789" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="790" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="791" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="792" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="793" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="794" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="795" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="796" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="797" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="798" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="799" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="800" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="801" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="802" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="803" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="804" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="805" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="806" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="807" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="808" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="809" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="810" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="811" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="812" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="813" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="814" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="815" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="816" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="817" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="818" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="819" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="820" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="821" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="822" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="823" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="824" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="825" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="826" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="827" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="828" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="829" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="830" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="831" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="832" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="833" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="834" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="835" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="836" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="837" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="838" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="839" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="840" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="841" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="842" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="843" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="844" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="845" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="846" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="847" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="848" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="849" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="850" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="851" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="852" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="853" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="854" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="855" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="856" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="857" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="858" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="859" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="860" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="861" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="862" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="863" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="864" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="865" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="866" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="867" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="868" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="869" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="870" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="871" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="872" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="873" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="874" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="875" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="876" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="877" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="878" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="879" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="880" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="881" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="882" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="883" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="884" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="885" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="886" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="887" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="888" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="889" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="890" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="891" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="892" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="893" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="894" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="895" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="896" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="897" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="898" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="899" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="900" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="901" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="902" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="903" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="904" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="905" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="906" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="907" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="908" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="909" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="910" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="911" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="912" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="913" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="914" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="915" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="916" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="917" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="918" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="919" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="920" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="921" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="922" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="923" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="924" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="925" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="926" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="927" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="928" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="929" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="930" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="931" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="932" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="933" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="934" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="935" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="936" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="937" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="938" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="939" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="940" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="941" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="942" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="943" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="944" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="945" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="946" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="947" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="948" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="949" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="950" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="951" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="952" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="953" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="954" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="955" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="956" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="957" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="958" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="959" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="960" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="961" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="962" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="963" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="964" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="965" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="966" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="967" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="968" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="969" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="970" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="971" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="972" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="973" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="974" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="975" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="976" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="977" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="978" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="979" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="980" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="981" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="982" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="983" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="984" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="985" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="986" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="987" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="988" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="989" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="990" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="991" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="992" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+      <c r="B54" s="5" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" s="47" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>770</v>
+      </c>
+      <c r="B56" s="54"/>
+    </row>
+    <row r="57" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="65" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="66" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="67" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="68" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="69" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="70" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="71" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="72" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="73" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="74" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="75" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="76" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="77" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="78" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="79" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="80" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="81" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="82" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="83" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="84" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="85" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="86" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="87" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="88" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="89" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="90" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="91" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="92" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="93" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="94" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="95" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="96" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="97" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="98" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="99" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="100" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="101" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="102" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="103" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="104" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="105" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="106" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="107" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="108" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="109" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="110" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="111" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="112" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="113" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="114" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="115" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="116" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="117" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="118" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="119" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="120" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="121" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="122" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="123" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="124" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="125" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="126" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="127" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="128" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="129" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="130" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="131" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="132" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="133" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="134" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="135" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="136" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="137" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="138" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="139" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="140" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="141" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="142" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="143" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="144" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="145" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="146" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="147" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="148" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="149" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="150" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="151" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="152" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="153" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="154" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="155" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="156" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="157" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="158" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="159" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="160" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="161" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="162" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="163" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="164" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="165" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="166" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="167" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="168" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="169" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="170" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="171" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="172" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="173" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="174" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="175" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="176" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="177" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="178" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="179" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="180" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="181" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="182" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="183" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="184" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="185" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="186" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="187" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="188" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="189" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="190" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="191" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="192" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="193" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="194" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="195" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="196" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="197" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="198" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="199" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="200" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="201" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="202" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="203" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="204" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="205" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="206" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="207" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="208" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="209" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="210" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="211" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="212" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="213" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="214" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="215" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="216" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="217" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="218" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="219" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="220" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="221" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="222" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="223" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="224" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="225" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="226" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="227" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="228" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="229" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="230" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="231" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="232" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="233" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="234" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="235" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="236" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="237" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="238" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="239" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="240" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="241" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="242" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="243" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="244" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="245" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="246" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="247" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="248" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="249" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="250" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="251" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="252" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="253" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="254" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="255" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="256" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="257" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="258" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="259" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="260" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="261" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="262" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="263" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="264" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="265" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="266" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="267" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="268" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="269" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="270" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="271" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="272" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="273" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="274" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="275" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="276" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="277" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="278" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="279" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="280" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="281" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="282" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="283" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="284" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="285" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="286" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="287" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="288" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="289" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="290" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="291" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="292" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="293" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="294" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="295" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="296" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="297" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="298" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="299" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="300" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="301" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="302" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="303" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="304" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="305" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="306" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="307" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="308" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="309" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="310" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="311" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="312" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="313" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="314" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="315" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="316" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="317" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="318" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="319" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="320" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="321" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="322" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="323" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="324" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="325" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="326" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="327" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="328" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="329" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="330" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="331" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="332" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="333" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="334" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="335" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="336" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="337" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="338" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="339" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="340" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="341" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="342" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="343" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="344" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="345" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="346" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="347" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="348" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="349" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="350" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="351" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="352" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="353" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="354" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="355" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="356" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="357" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="358" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="359" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="360" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="361" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="362" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="363" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="364" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="365" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="366" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="367" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="368" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="369" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="370" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="371" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="372" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="373" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="374" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="375" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="376" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="377" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="378" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="379" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="380" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="381" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="382" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="383" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="384" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="385" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="386" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="387" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="388" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="389" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="390" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="391" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="392" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="393" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="394" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="395" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="396" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="397" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="398" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="399" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="400" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="401" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="402" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="403" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="404" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="405" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="406" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="407" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="408" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="409" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="410" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="411" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="412" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="413" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="414" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="415" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="416" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="417" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="418" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="419" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="420" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="421" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="422" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="423" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="424" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="425" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="426" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="427" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="428" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="429" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="430" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="431" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="432" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="433" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="434" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="435" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="436" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="437" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="438" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="439" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="440" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="441" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="442" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="443" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="444" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="445" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="446" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="447" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="448" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="449" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="450" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="451" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="452" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="453" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="454" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="455" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="456" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="457" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="458" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="459" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="460" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="461" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="462" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="463" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="464" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="465" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="466" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="467" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="468" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="469" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="470" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="471" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="472" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="473" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="474" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="475" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="476" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="477" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="478" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="479" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="480" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="481" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="482" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="483" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="484" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="485" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="486" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="487" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="488" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="489" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="490" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="491" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="492" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="493" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="494" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="495" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="496" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="497" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="498" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="499" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="500" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="501" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="502" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="503" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="504" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="505" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="506" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="507" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="508" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="509" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="510" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="511" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="512" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="513" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="514" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="515" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="516" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="517" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="518" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="519" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="520" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="521" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="522" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="523" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="524" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="525" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="526" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="527" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="528" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="529" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="530" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="531" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="532" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="533" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="534" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="535" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="536" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="537" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="538" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="539" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="540" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="541" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="542" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="543" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="544" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="545" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="546" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="547" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="548" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="549" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="550" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="551" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="552" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="553" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="554" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="555" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="556" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="557" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="558" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="559" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="560" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="561" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="562" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="563" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="564" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="565" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="566" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="567" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="568" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="569" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="570" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="571" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="572" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="573" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="574" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="575" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="576" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="577" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="578" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="579" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="580" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="581" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="582" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="583" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="584" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="585" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="586" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="587" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="588" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="589" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="590" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="591" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="592" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="593" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="594" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="595" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="596" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="597" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="598" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="599" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="600" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="601" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="602" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="603" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="604" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="605" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="606" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="607" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="608" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="609" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="610" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="611" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="612" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="613" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="614" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="615" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="616" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="617" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="618" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="619" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="620" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="621" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="622" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="623" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="624" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="625" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="626" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="627" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="628" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="629" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="630" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="631" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="632" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="633" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="634" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="635" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="636" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="637" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="638" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="639" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="640" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="641" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="642" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="643" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="644" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="645" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="646" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="647" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="648" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="649" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="650" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="651" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="652" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="653" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="654" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="655" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="656" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="657" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="658" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="659" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="660" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="661" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="662" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="663" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="664" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="665" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="666" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="667" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="668" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="669" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="670" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="671" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="672" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="673" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="674" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="675" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="676" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="677" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="678" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="679" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="680" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="681" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="682" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="683" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="684" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="685" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="686" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="687" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="688" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="689" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="690" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="691" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="692" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="693" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="694" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="695" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="696" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="697" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="698" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="699" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="700" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="701" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="702" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="703" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="704" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="705" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="706" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="707" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="708" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="709" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="710" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="711" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="712" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="713" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="714" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="715" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="716" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="717" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="718" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="719" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="720" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="721" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="722" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="723" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="724" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="725" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="726" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="727" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="728" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="729" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="730" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="731" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="732" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="733" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="734" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="735" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="736" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="737" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="738" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="739" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="740" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="741" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="742" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="743" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="744" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="745" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="746" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="747" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="748" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="749" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="750" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="751" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="752" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="753" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="754" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="755" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="756" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="757" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="758" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="759" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="760" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="761" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="762" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="763" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="764" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="765" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="766" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="767" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="768" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="769" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="770" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="771" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="772" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="773" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="774" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="775" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="776" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="777" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="778" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="779" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="780" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="781" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="782" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="783" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="784" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="785" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="786" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="787" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="788" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="789" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="790" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="791" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="792" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="793" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="794" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="795" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="796" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="797" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="798" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="799" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="800" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="801" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="802" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="803" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="804" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="805" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="806" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="807" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="808" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="809" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="810" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="811" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="812" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="813" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="814" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="815" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="816" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="817" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="818" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="819" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="820" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="821" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="822" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="823" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="824" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="825" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="826" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="827" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="828" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="829" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="830" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="831" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="832" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="833" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="834" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="835" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="836" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="837" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="838" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="839" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="840" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="841" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="842" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="843" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="844" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="845" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="846" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="847" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="848" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="849" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="850" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="851" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="852" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="853" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="854" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="855" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="856" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="857" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="858" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="859" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="860" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="861" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="862" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="863" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="864" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="865" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="866" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="867" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="868" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="869" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="870" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="871" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="872" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="873" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="874" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="875" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="876" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="877" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="878" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="879" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="880" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="881" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="882" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="883" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="884" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="885" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="886" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="887" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="888" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="889" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="890" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="891" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="892" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="893" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="894" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="895" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="896" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="897" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="898" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="899" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="900" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="901" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="902" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="903" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="904" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="905" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="906" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="907" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="908" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="909" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="910" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="911" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="912" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="913" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="914" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="915" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="916" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="917" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="918" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="919" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="920" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="921" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="922" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="923" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="924" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="925" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="926" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="927" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="928" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="929" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="930" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="931" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="932" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="933" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="934" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="935" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="936" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="937" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="938" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="939" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="940" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="941" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="942" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="943" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="944" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="945" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="946" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="947" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="948" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="949" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="950" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="951" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="952" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="953" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="954" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="955" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="956" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="957" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="958" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="959" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="960" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="961" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="962" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="963" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="964" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="965" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="966" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="967" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="968" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="969" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="970" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="971" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="972" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="973" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="974" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="975" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="976" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="977" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="978" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="979" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="980" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="981" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="982" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="983" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="984" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="985" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="986" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="987" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="988" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="989" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="990" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="991" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="992" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="993" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="994" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="995" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="996" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="997" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="998" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="999" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1000" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1001" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1002" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
+  <mergeCells count="12">
+    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1"/>
+    <hyperlink ref="B49" r:id="rId1"/>
+    <hyperlink ref="A52" r:id="rId2"/>
+    <hyperlink ref="A53" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -11603,182 +11666,182 @@
     </row>
     <row r="2" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:26" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="B14" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+    </row>
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+    </row>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-    </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>578</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>579</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-    </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>581</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14935,8 +14998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14947,624 +15010,624 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B33" s="48"/>
     </row>
     <row r="34" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B43" s="48"/>
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B49" s="48"/>
     </row>
     <row r="50" spans="1:2" s="5" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B53" s="48"/>
     </row>
     <row r="54" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B56" s="48"/>
     </row>
     <row r="57" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B59" s="48"/>
     </row>
     <row r="60" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
-        <v>707</v>
+      <c r="A60" s="46" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B62" s="48"/>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:2" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B69" s="48"/>
     </row>
     <row r="70" spans="1:2" s="5" customFormat="1" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B73" s="48"/>
     </row>
     <row r="74" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="47" t="s">
-        <v>707</v>
+      <c r="A74" s="46" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B77" s="48"/>
     </row>
     <row r="78" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
-        <v>707</v>
+      <c r="A78" s="46" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B81" s="48"/>
     </row>
     <row r="82" spans="1:2" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B88" s="48"/>
     </row>
     <row r="89" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="47" t="s">
-        <v>707</v>
+      <c r="A89" s="46" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:2" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B91" s="48"/>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="5" customFormat="1" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B96" s="48"/>
     </row>
     <row r="97" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -16460,21 +16523,21 @@
     <row r="988" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16497,7 +16560,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B1" s="48"/>
     </row>
@@ -16506,7 +16569,7 @@
         <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
@@ -16514,15 +16577,15 @@
         <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -16530,7 +16593,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -16538,7 +16601,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -16546,13 +16609,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B9" s="49"/>
     </row>
@@ -16561,7 +16624,7 @@
         <v>239</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -16569,7 +16632,7 @@
         <v>242</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -16577,7 +16640,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -16585,7 +16648,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
@@ -16593,7 +16656,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
@@ -16601,23 +16664,23 @@
         <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -16625,15 +16688,15 @@
         <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
@@ -16641,7 +16704,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
@@ -16649,7 +16712,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -16657,7 +16720,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -16676,7 +16739,7 @@
     <row r="36" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B37" s="49"/>
     </row>
@@ -16685,7 +16748,7 @@
         <v>239</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
@@ -16693,7 +16756,7 @@
         <v>242</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
@@ -16701,13 +16764,13 @@
         <v>43</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B42" s="49"/>
     </row>
@@ -16716,7 +16779,7 @@
         <v>239</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -17630,8 +17693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17642,68 +17705,68 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>

--- a/RecursosWeb.xlsx
+++ b/RecursosWeb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JORGE\Desktop\Notas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solincamfer\Downloads\Jorge\notas\Notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="14055" windowHeight="7425" tabRatio="563" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Entorno de Trabajo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="774">
   <si>
     <t>Concepto</t>
   </si>
@@ -2956,9 +2956,6 @@
     <t>Video 110</t>
   </si>
   <si>
-    <t xml:space="preserve">Explicacion  de fetch API </t>
-  </si>
-  <si>
     <t>Incluir bootstrap desde la cdn</t>
   </si>
   <si>
@@ -2984,6 +2981,31 @@
   </si>
   <si>
     <t>_@extends("Carpeta.Nombreplantilla")</t>
+  </si>
+  <si>
+    <t>Video 111</t>
+  </si>
+  <si>
+    <t>Explicacion  de fetch API, es el sustituto de ajax, es mas poderoso y mas facil. Siempre necesitas dos Then uno para establecer la conexión y el metodo como quieres que te devuelva los datos y el segundo then para acceder a los datos finalmente se pone un .catch para detectar el error. el codigo ejemplo es el siguiente 
+function nombreFuncion(){
+fetch("RutaArchivo")
+//Conexion
+         .then(function(res){
+                    // devuelve como un txt ver el proto para ver
+                  como quieres que te devuelva la informacion 
+                return res.text();
+})
+// Respuesta
+          .then(function(param){
+                    console.log(param);
+})
+            .catch(function(error){
+                     console.log(error);
+})
+}</t>
+  </si>
+  <si>
+    <t>Utilizando la fech api pero en vez de taer la informacion como un txt se trae como json</t>
   </si>
 </sst>
 </file>
@@ -3339,6 +3361,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3360,13 +3389,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -6042,10 +6064,10 @@
       <c r="B15" s="16"/>
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="54"/>
     </row>
     <row r="17" spans="1:2" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -6153,10 +6175,10 @@
     </row>
     <row r="30" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:2" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="54"/>
     </row>
     <row r="32" spans="1:2" s="5" customFormat="1" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -6216,10 +6238,10 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:2" s="21" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="51"/>
+      <c r="B40" s="54"/>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -6255,10 +6277,10 @@
     </row>
     <row r="45" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:2" s="22" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B46" s="51"/>
+      <c r="B46" s="54"/>
     </row>
     <row r="47" spans="1:2" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -6326,10 +6348,10 @@
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:2" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="51"/>
+      <c r="B56" s="54"/>
     </row>
     <row r="57" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -6341,10 +6363,10 @@
     </row>
     <row r="58" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:2" s="26" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="B59" s="51"/>
+      <c r="B59" s="54"/>
     </row>
     <row r="60" spans="1:2" s="20" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
@@ -6388,10 +6410,10 @@
     </row>
     <row r="65" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:2" s="29" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="B66" s="51"/>
+      <c r="B66" s="54"/>
     </row>
     <row r="67" spans="1:2" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -6411,10 +6433,10 @@
     </row>
     <row r="69" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:2" s="31" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="54" t="s">
         <v>471</v>
       </c>
-      <c r="B70" s="51"/>
+      <c r="B70" s="54"/>
     </row>
     <row r="71" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -6434,10 +6456,10 @@
     </row>
     <row r="73" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:2" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="B74" s="51"/>
+      <c r="B74" s="54"/>
     </row>
     <row r="75" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -8175,10 +8197,10 @@
     <row r="24" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:2" s="18" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="55"/>
     </row>
     <row r="27" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
@@ -8652,10 +8674,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -8785,10 +8807,10 @@
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -8928,10 +8950,10 @@
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="B49" s="53"/>
+      <c r="B49" s="56"/>
     </row>
     <row r="50" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="27" t="s">
@@ -9086,10 +9108,10 @@
     <row r="82" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="53" t="s">
+      <c r="A84" s="56" t="s">
         <v>447</v>
       </c>
-      <c r="B84" s="53"/>
+      <c r="B84" s="56"/>
     </row>
     <row r="85" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
@@ -9110,10 +9132,10 @@
     <row r="89" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:2" s="11" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="56"/>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -10046,8 +10068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10057,10 +10079,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="33" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -10085,10 +10107,10 @@
     </row>
     <row r="5" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:26" s="17" customFormat="1" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -10134,10 +10156,10 @@
       <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="57"/>
     </row>
     <row r="11" spans="1:26" s="17" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -10159,10 +10181,10 @@
       <c r="A13" s="5"/>
     </row>
     <row r="14" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="57"/>
     </row>
     <row r="15" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
@@ -10171,30 +10193,30 @@
       <c r="B15" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
     </row>
     <row r="16" spans="1:26" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
@@ -10203,30 +10225,30 @@
       <c r="B16" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
     </row>
     <row r="17" spans="1:26" s="5" customFormat="1" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
@@ -10235,30 +10257,30 @@
       <c r="B17" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
     </row>
     <row r="18" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
@@ -10267,30 +10289,30 @@
       <c r="B18" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
     </row>
     <row r="19" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
@@ -10299,37 +10321,37 @@
       <c r="B19" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
     </row>
     <row r="20" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="57"/>
     </row>
     <row r="22" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
@@ -10338,30 +10360,30 @@
       <c r="B22" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
     </row>
     <row r="23" spans="1:26" s="5" customFormat="1" ht="94.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
@@ -10370,30 +10392,30 @@
       <c r="B23" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
     </row>
     <row r="24" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
@@ -10402,30 +10424,30 @@
       <c r="B24" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
     </row>
     <row r="25" spans="1:26" s="5" customFormat="1" ht="357" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
@@ -10434,37 +10456,37 @@
       <c r="B25" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
     </row>
     <row r="26" spans="1:26" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:26" s="34" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="B27" s="54"/>
+      <c r="B27" s="57"/>
     </row>
     <row r="28" spans="1:26" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
@@ -10473,30 +10495,30 @@
       <c r="B28" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
     </row>
     <row r="29" spans="1:26" s="5" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
@@ -10505,30 +10527,30 @@
       <c r="B29" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
     </row>
     <row r="30" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -10540,10 +10562,10 @@
     </row>
     <row r="31" spans="1:26" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:26" s="34" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="57" t="s">
         <v>515</v>
       </c>
-      <c r="B32" s="54"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -10553,10 +10575,10 @@
     <row r="34" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" s="38" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="B36" s="54"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -10573,54 +10595,54 @@
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:2" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="B40" s="54"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:2" s="40" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="B44" s="54"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:2" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:2" s="41" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="B47" s="54"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="49" t="s">
         <v>549</v>
       </c>
     </row>
@@ -10637,7 +10659,7 @@
         <v>545</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -10645,12 +10667,12 @@
         <v>550</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>546</v>
@@ -10661,15 +10683,15 @@
         <v>547</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:2" s="47" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="54" t="s">
-        <v>770</v>
-      </c>
-      <c r="B56" s="54"/>
+      <c r="A56" s="57" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="57"/>
     </row>
     <row r="57" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -11609,14 +11631,14 @@
     <row r="992" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="993" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="994" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="995" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="996" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="997" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="998" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="999" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="1000" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="1001" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
-    <row r="1002" s="57" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="995" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="996" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="997" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="998" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="999" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1000" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1001" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
+    <row r="1002" s="50" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A56:B56"/>
@@ -14998,8 +15020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B988"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15009,10 +15031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -15256,10 +15278,10 @@
     </row>
     <row r="32" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="B33" s="48"/>
+      <c r="B33" s="51"/>
     </row>
     <row r="34" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -15327,10 +15349,10 @@
     </row>
     <row r="42" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="51"/>
     </row>
     <row r="44" spans="1:2" s="5" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -15366,10 +15388,10 @@
     </row>
     <row r="48" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="B49" s="48"/>
+      <c r="B49" s="51"/>
     </row>
     <row r="50" spans="1:2" s="5" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -15389,10 +15411,10 @@
     </row>
     <row r="52" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="51" t="s">
         <v>690</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="51"/>
     </row>
     <row r="54" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -15404,10 +15426,10 @@
     </row>
     <row r="55" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="B56" s="48"/>
+      <c r="B56" s="51"/>
     </row>
     <row r="57" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -15419,10 +15441,10 @@
     </row>
     <row r="58" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="51" t="s">
         <v>701</v>
       </c>
-      <c r="B59" s="48"/>
+      <c r="B59" s="51"/>
     </row>
     <row r="60" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
@@ -15431,10 +15453,10 @@
     </row>
     <row r="61" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="51" t="s">
         <v>709</v>
       </c>
-      <c r="B62" s="48"/>
+      <c r="B62" s="51"/>
     </row>
     <row r="63" spans="1:2" s="5" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
@@ -15478,10 +15500,10 @@
     </row>
     <row r="68" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:2" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="51" t="s">
         <v>714</v>
       </c>
-      <c r="B69" s="48"/>
+      <c r="B69" s="51"/>
     </row>
     <row r="70" spans="1:2" s="5" customFormat="1" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -15501,10 +15523,10 @@
     </row>
     <row r="72" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="51" t="s">
         <v>729</v>
       </c>
-      <c r="B73" s="48"/>
+      <c r="B73" s="51"/>
     </row>
     <row r="74" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="46" t="s">
@@ -15514,10 +15536,10 @@
     <row r="75" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="51" t="s">
         <v>730</v>
       </c>
-      <c r="B77" s="48"/>
+      <c r="B77" s="51"/>
     </row>
     <row r="78" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="46" t="s">
@@ -15527,10 +15549,10 @@
     <row r="79" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="48" t="s">
+      <c r="A81" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="B81" s="48"/>
+      <c r="B81" s="51"/>
     </row>
     <row r="82" spans="1:2" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
@@ -15574,10 +15596,10 @@
     </row>
     <row r="87" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="51"/>
     </row>
     <row r="89" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="46" t="s">
@@ -15586,10 +15608,10 @@
     </row>
     <row r="90" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:2" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="51" t="s">
         <v>753</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="51"/>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -15617,20 +15639,27 @@
     </row>
     <row r="95" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="51" t="s">
         <v>760</v>
       </c>
-      <c r="B96" s="48"/>
-    </row>
-    <row r="97" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="51"/>
+    </row>
+    <row r="97" spans="1:2" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>761</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>773</v>
+      </c>
+    </row>
     <row r="99" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
@@ -16523,21 +16552,21 @@
     <row r="988" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A81:B81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -16548,7 +16577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B938"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16559,10 +16588,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>662</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -16614,10 +16643,10 @@
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="52"/>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -16738,10 +16767,10 @@
     <row r="35" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="52" t="s">
         <v>692</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -16769,10 +16798,10 @@
     </row>
     <row r="41" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="52" t="s">
         <v>696</v>
       </c>
-      <c r="B42" s="49"/>
+      <c r="B42" s="52"/>
     </row>
     <row r="43" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
@@ -17704,10 +17733,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -17751,10 +17780,10 @@
     </row>
     <row r="7" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="51" t="s">
         <v>725</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="51"/>
     </row>
     <row r="9" spans="1:2" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -18782,10 +18811,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="53"/>
     </row>
     <row r="2" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
